--- a/src/main/webapp/office/b1d768068d614ee3890dcf457d575981.xlsx
+++ b/src/main/webapp/office/b1d768068d614ee3890dcf457d575981.xlsx
@@ -228,6 +228,21 @@
         <row r="25">
           <cell r="A25">
             <v>25</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>28</v>
           </cell>
         </row>
       </sheetData>
@@ -501,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,7 +530,7 @@
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4">
         <f>SUM([1]Sheet1!$A$1:$A$32)</f>
-        <v>325</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
